--- a/libraryROI_2019.xlsx
+++ b/libraryROI_2019.xlsx
@@ -58,19 +58,19 @@
     <t>West Virginia</t>
   </si>
   <si>
-    <t>Total program attendence (in thous.)</t>
-  </si>
-  <si>
-    <t>Total circulation (in thous.)</t>
-  </si>
-  <si>
-    <t>Total public-access computer internet sessions (in thous.)</t>
-  </si>
-  <si>
-    <t>Total library services engagement (in thous.)</t>
-  </si>
-  <si>
-    <t>Total operating cost (per capita)</t>
+    <t>attendence</t>
+  </si>
+  <si>
+    <t>materials</t>
+  </si>
+  <si>
+    <t>sessions</t>
+  </si>
+  <si>
+    <t>total_Engagement</t>
+  </si>
+  <si>
+    <t>total_Cost</t>
   </si>
 </sst>
 </file>
@@ -497,7 +497,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="3">
@@ -660,6 +660,9 @@
       <c r="P6" s="1">
         <v>22.82</v>
       </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
